--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H2">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I2">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J2">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N2">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O2">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P2">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q2">
-        <v>3.235465624334667</v>
+        <v>11.66849036696078</v>
       </c>
       <c r="R2">
-        <v>29.119190619012</v>
+        <v>105.016413302647</v>
       </c>
       <c r="S2">
-        <v>9.976821551894228E-05</v>
+        <v>0.0002889976845055949</v>
       </c>
       <c r="T2">
-        <v>0.0001001452800618869</v>
+        <v>0.0002903481708910618</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H3">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I3">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J3">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.340352</v>
       </c>
       <c r="O3">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P3">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q3">
-        <v>2.550508148522667</v>
+        <v>2.280663166307555</v>
       </c>
       <c r="R3">
-        <v>22.954573336704</v>
+        <v>20.525968496768</v>
       </c>
       <c r="S3">
-        <v>7.864699434009729E-05</v>
+        <v>5.648600234237118E-05</v>
       </c>
       <c r="T3">
-        <v>7.894423322344875E-05</v>
+        <v>5.674996147153627E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H4">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I4">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J4">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N4">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O4">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P4">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q4">
-        <v>2232.730009531565</v>
+        <v>2735.976347065166</v>
       </c>
       <c r="R4">
-        <v>20094.57008578409</v>
+        <v>24623.78712358649</v>
       </c>
       <c r="S4">
-        <v>0.06884804681933905</v>
+        <v>0.06776290713687716</v>
       </c>
       <c r="T4">
-        <v>0.06910825150648851</v>
+        <v>0.06807956325017635</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H5">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I5">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J5">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N5">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O5">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P5">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q5">
-        <v>13.738671481662</v>
+        <v>24.55860758060733</v>
       </c>
       <c r="R5">
-        <v>82.43202888997202</v>
+        <v>147.351645483644</v>
       </c>
       <c r="S5">
-        <v>0.0004236431155433043</v>
+        <v>0.0006082518391216432</v>
       </c>
       <c r="T5">
-        <v>0.0002834961564441964</v>
+        <v>0.0004073961335992975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>22.481209</v>
+        <v>20.10268633333333</v>
       </c>
       <c r="H6">
-        <v>67.44362700000001</v>
+        <v>60.308059</v>
       </c>
       <c r="I6">
-        <v>0.1656226259370683</v>
+        <v>0.1188668172183431</v>
       </c>
       <c r="J6">
-        <v>0.166106832923046</v>
+        <v>0.1192185838730403</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N6">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O6">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P6">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q6">
-        <v>3118.857878841248</v>
+        <v>2024.849540588209</v>
       </c>
       <c r="R6">
-        <v>28069.72090957124</v>
+        <v>18223.64586529388</v>
       </c>
       <c r="S6">
-        <v>0.09617252079232695</v>
+        <v>0.05015017455549629</v>
       </c>
       <c r="T6">
-        <v>0.09653599574682793</v>
+        <v>0.05038452635690207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I7">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J7">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N7">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O7">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P7">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q7">
-        <v>4.245860823643111</v>
+        <v>17.12415708320655</v>
       </c>
       <c r="R7">
-        <v>38.212747412788</v>
+        <v>154.117413748859</v>
       </c>
       <c r="S7">
-        <v>0.0001309245737400681</v>
+        <v>0.0004241201381259547</v>
       </c>
       <c r="T7">
-        <v>0.0001314193907947858</v>
+        <v>0.0004261020518333995</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I8">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J8">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.340352</v>
       </c>
       <c r="O8">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P8">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q8">
         <v>3.346999747655111</v>
@@ -948,10 +948,10 @@
         <v>30.122997728896</v>
       </c>
       <c r="S8">
-        <v>0.0001032074609769862</v>
+        <v>8.28963427738663E-05</v>
       </c>
       <c r="T8">
-        <v>0.0001035975238231477</v>
+        <v>8.328371744267246E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I9">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J9">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N9">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O9">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P9">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q9">
-        <v>2929.983494784246</v>
+        <v>4015.197105166282</v>
       </c>
       <c r="R9">
-        <v>26369.85145305822</v>
+        <v>36136.77394649653</v>
       </c>
       <c r="S9">
-        <v>0.09034842545566843</v>
+        <v>0.09944582630091001</v>
       </c>
       <c r="T9">
-        <v>0.09068988879219311</v>
+        <v>0.09991053671802159</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I10">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J10">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N10">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O10">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P10">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q10">
-        <v>18.029085697638</v>
+        <v>36.04111935044467</v>
       </c>
       <c r="R10">
-        <v>108.174514185828</v>
+        <v>216.246716102668</v>
       </c>
       <c r="S10">
-        <v>0.0005559415293931037</v>
+        <v>0.0008926433250320488</v>
       </c>
       <c r="T10">
-        <v>0.00037202843857979</v>
+        <v>0.0005978764319503359</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>88.50542300000001</v>
       </c>
       <c r="I11">
-        <v>0.2173444878184117</v>
+        <v>0.1744436500364427</v>
       </c>
       <c r="J11">
-        <v>0.2179799065528387</v>
+        <v>0.1749598871212952</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N11">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O11">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P11">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q11">
-        <v>4092.837946626557</v>
+        <v>2971.579057139197</v>
       </c>
       <c r="R11">
-        <v>36835.54151963902</v>
+        <v>26744.21151425278</v>
       </c>
       <c r="S11">
-        <v>0.1262059887986331</v>
+        <v>0.07359816392960079</v>
       </c>
       <c r="T11">
-        <v>0.1266829724074479</v>
+        <v>0.0739420882020472</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H12">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I12">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J12">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N12">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O12">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P12">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q12">
-        <v>6.154720494121335</v>
+        <v>35.85657159633144</v>
       </c>
       <c r="R12">
-        <v>55.39248444709201</v>
+        <v>322.709144366983</v>
       </c>
       <c r="S12">
-        <v>0.0001897858150919526</v>
+        <v>0.0008880725646387041</v>
       </c>
       <c r="T12">
-        <v>0.0001905030926462599</v>
+        <v>0.0008922225283655865</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H13">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I13">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J13">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.340352</v>
       </c>
       <c r="O13">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P13">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q13">
-        <v>4.851748278229334</v>
+        <v>7.008341228216888</v>
       </c>
       <c r="R13">
-        <v>43.66573450406401</v>
+        <v>63.07507105395199</v>
       </c>
       <c r="S13">
-        <v>0.0001496076064679501</v>
+        <v>0.0001735780999498156</v>
       </c>
       <c r="T13">
-        <v>0.0001501730342794075</v>
+        <v>0.0001743892305344722</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H14">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I14">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J14">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N14">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O14">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P14">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q14">
-        <v>4247.249312169552</v>
+        <v>8407.491345426179</v>
       </c>
       <c r="R14">
-        <v>38225.24380952597</v>
+        <v>75667.42210883561</v>
       </c>
       <c r="S14">
-        <v>0.1309673889137203</v>
+        <v>0.2082313525500091</v>
       </c>
       <c r="T14">
-        <v>0.131462367784341</v>
+        <v>0.2092044178087402</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H15">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I15">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J15">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1364,28 +1364,28 @@
         <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N15">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O15">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P15">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q15">
-        <v>26.13462566074201</v>
+        <v>75.46712927951933</v>
       </c>
       <c r="R15">
-        <v>156.807753964452</v>
+        <v>452.802775677116</v>
       </c>
       <c r="S15">
-        <v>0.0008058824503703289</v>
+        <v>0.001869121448633989</v>
       </c>
       <c r="T15">
-        <v>0.0005392854712930315</v>
+        <v>0.001251903902996205</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>42.76526900000001</v>
+        <v>61.77435033333333</v>
       </c>
       <c r="H16">
-        <v>128.295807</v>
+        <v>185.323051</v>
       </c>
       <c r="I16">
-        <v>0.3150585073376216</v>
+        <v>0.3652706055348701</v>
       </c>
       <c r="J16">
-        <v>0.3159795984589672</v>
+        <v>0.3663515633831165</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N16">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O16">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P16">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q16">
-        <v>5932.901391620682</v>
+        <v>6222.241287482907</v>
       </c>
       <c r="R16">
-        <v>53396.11252458614</v>
+        <v>56000.17158734617</v>
       </c>
       <c r="S16">
-        <v>0.1829458425519711</v>
+        <v>0.1541084808716384</v>
       </c>
       <c r="T16">
-        <v>0.1836372690764075</v>
+        <v>0.1548286299124799</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H17">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I17">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J17">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1488,28 +1488,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N17">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O17">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P17">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q17">
-        <v>0.170836998202</v>
+        <v>0.8689324225541667</v>
       </c>
       <c r="R17">
-        <v>1.025021989212</v>
+        <v>5.213594535325</v>
       </c>
       <c r="S17">
-        <v>5.267897865158494E-06</v>
+        <v>2.152116085393821E-05</v>
       </c>
       <c r="T17">
-        <v>3.525204924899491E-06</v>
+        <v>1.441448616928811E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H18">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I18">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J18">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.340352</v>
       </c>
       <c r="O18">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P18">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q18">
-        <v>0.134670309184</v>
+        <v>0.1698370661333333</v>
       </c>
       <c r="R18">
-        <v>0.8080218551039999</v>
+        <v>1.0190223968</v>
       </c>
       <c r="S18">
-        <v>4.152668577164935E-06</v>
+        <v>4.206415509818958E-06</v>
       </c>
       <c r="T18">
-        <v>2.778908797096952E-06</v>
+        <v>2.817381394994264E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H19">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I19">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J19">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N19">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O19">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P19">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q19">
-        <v>117.891189989797</v>
+        <v>203.7434561404584</v>
       </c>
       <c r="R19">
-        <v>707.347139938782</v>
+        <v>1222.46073684275</v>
       </c>
       <c r="S19">
-        <v>0.003635270782116655</v>
+        <v>0.005046187227825272</v>
       </c>
       <c r="T19">
-        <v>0.002432673296348218</v>
+        <v>0.003379845376222592</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H20">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I20">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J20">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,28 +1674,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N20">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O20">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P20">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q20">
-        <v>0.725420594043</v>
+        <v>1.828837296725</v>
       </c>
       <c r="R20">
-        <v>2.901682376172</v>
+        <v>7.3153491869</v>
       </c>
       <c r="S20">
-        <v>2.236893435801653E-05</v>
+        <v>4.529546903406834E-05</v>
       </c>
       <c r="T20">
-        <v>9.979322502963373E-06</v>
+        <v>2.022539324138482E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.1870385</v>
+        <v>1.4970125</v>
       </c>
       <c r="H21">
-        <v>2.374077</v>
+        <v>2.994025</v>
       </c>
       <c r="I21">
-        <v>0.008745100561913669</v>
+        <v>0.008851807577379077</v>
       </c>
       <c r="J21">
-        <v>0.005847111567493933</v>
+        <v>0.005918668690373198</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N21">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O21">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P21">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q21">
-        <v>164.6799501847475</v>
+        <v>150.7870651025167</v>
       </c>
       <c r="R21">
-        <v>988.0797011084849</v>
+        <v>904.7223906151002</v>
       </c>
       <c r="S21">
-        <v>0.005078040278996675</v>
+        <v>0.003734597304155978</v>
       </c>
       <c r="T21">
-        <v>0.003398154834920755</v>
+        <v>0.002501366053344939</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H22">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I22">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J22">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1798,28 +1798,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.1439186666666667</v>
+        <v>0.5804443333333333</v>
       </c>
       <c r="N22">
-        <v>0.431756</v>
+        <v>1.741333</v>
       </c>
       <c r="O22">
-        <v>0.0006023827659685291</v>
+        <v>0.002431273010151717</v>
       </c>
       <c r="P22">
-        <v>0.0006028968122478276</v>
+        <v>0.002435427107574628</v>
       </c>
       <c r="Q22">
-        <v>5.728282864529333</v>
+        <v>32.646253366716</v>
       </c>
       <c r="R22">
-        <v>51.55454578076399</v>
+        <v>293.816280300444</v>
       </c>
       <c r="S22">
-        <v>0.0001766362637524076</v>
+        <v>0.0008085614620275257</v>
       </c>
       <c r="T22">
-        <v>0.0001773038438199955</v>
+        <v>0.0008123398703152924</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H23">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I23">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J23">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.340352</v>
       </c>
       <c r="O23">
-        <v>0.0004748565837253468</v>
+        <v>0.0004752041289926495</v>
       </c>
       <c r="P23">
-        <v>0.0004752618049133599</v>
+        <v>0.00047601606752829</v>
       </c>
       <c r="Q23">
-        <v>4.515588734165333</v>
+        <v>6.380868923903998</v>
       </c>
       <c r="R23">
-        <v>40.640298607488</v>
+        <v>57.42782031513599</v>
       </c>
       <c r="S23">
-        <v>0.0001392418533631483</v>
+        <v>0.0001580372684167775</v>
       </c>
       <c r="T23">
-        <v>0.0001397681047902591</v>
+        <v>0.0001587757766846148</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H24">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I24">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J24">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>99.31538866666666</v>
+        <v>136.1000366666667</v>
       </c>
       <c r="N24">
-        <v>297.946166</v>
+        <v>408.30011</v>
       </c>
       <c r="O24">
-        <v>0.4156922789371741</v>
+        <v>0.5700742118164518</v>
       </c>
       <c r="P24">
-        <v>0.4160470119763526</v>
+        <v>0.5710482463260632</v>
       </c>
       <c r="Q24">
-        <v>3952.973247042339</v>
+        <v>7654.75003386372</v>
       </c>
       <c r="R24">
-        <v>35576.75922338105</v>
+        <v>68892.75030477348</v>
       </c>
       <c r="S24">
-        <v>0.1218931469663297</v>
+        <v>0.1895879386008303</v>
       </c>
       <c r="T24">
-        <v>0.1223538305969817</v>
+        <v>0.1904738831729024</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H25">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I25">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J25">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1984,28 +1984,28 @@
         <v>0.5</v>
       </c>
       <c r="M25">
-        <v>0.6111180000000001</v>
+        <v>1.221658</v>
       </c>
       <c r="N25">
-        <v>1.222236</v>
+        <v>2.443316</v>
       </c>
       <c r="O25">
-        <v>0.002557881890510999</v>
+        <v>0.005117086949542552</v>
       </c>
       <c r="P25">
-        <v>0.001706709781021076</v>
+        <v>0.003417220037046797</v>
       </c>
       <c r="Q25">
-        <v>24.323854915314</v>
+        <v>68.71039013584799</v>
       </c>
       <c r="R25">
-        <v>145.943129491884</v>
+        <v>412.2623408150879</v>
       </c>
       <c r="S25">
-        <v>0.0007500458608462455</v>
+        <v>0.001701774867720803</v>
       </c>
       <c r="T25">
-        <v>0.0005019203922010951</v>
+        <v>0.001139818175259573</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>39.802223</v>
+        <v>56.24355599999999</v>
       </c>
       <c r="H26">
-        <v>119.406669</v>
+        <v>168.730668</v>
       </c>
       <c r="I26">
-        <v>0.2932292783449847</v>
+        <v>0.3325671196329652</v>
       </c>
       <c r="J26">
-        <v>0.2940865504976541</v>
+        <v>0.3335512969321748</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>138.7317683333333</v>
+        <v>100.7253213333333</v>
       </c>
       <c r="N26">
-        <v>416.195305</v>
+        <v>302.175964</v>
       </c>
       <c r="O26">
-        <v>0.5806725998226211</v>
+        <v>0.4219022240948613</v>
       </c>
       <c r="P26">
-        <v>0.5811681196254651</v>
+        <v>0.4226230904617871</v>
       </c>
       <c r="Q26">
-        <v>5521.832780387671</v>
+        <v>5665.150251029328</v>
       </c>
       <c r="R26">
-        <v>49696.49502348903</v>
+        <v>50986.35225926395</v>
       </c>
       <c r="S26">
-        <v>0.1702702074006933</v>
+        <v>0.1403108074339698</v>
       </c>
       <c r="T26">
-        <v>0.170913727559861</v>
+        <v>0.1409664799370129</v>
       </c>
     </row>
   </sheetData>
